--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2943.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2943.xlsx
@@ -354,7 +354,7 @@
         <v>2.553013874393508</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.322056989255011</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2943.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2943.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.066275691701479</v>
+        <v>1.327376365661621</v>
       </c>
       <c r="B1">
-        <v>2.553013874393508</v>
+        <v>1.17270302772522</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.170324325561523</v>
       </c>
       <c r="D1">
-        <v>2.322056989255011</v>
+        <v>3.025180578231812</v>
       </c>
       <c r="E1">
-        <v>1.326840314734443</v>
+        <v>0.9158830642700195</v>
       </c>
     </row>
   </sheetData>
